--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_2d_prj_inverse_kernel.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_2d_prj_inverse_kernel.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="inverse_sr_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="inverse_sr_0.5" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -467,16 +468,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95.45722713864306</v>
+        <v>94.66076696165192</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1223246154061296</v>
+        <v>0.1133356935900035</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9545722713864306</v>
+        <v>0.9466076696165192</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9540133930973589</v>
+        <v>0.9459502802083757</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +487,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93.42252095606364</v>
+        <v>94.21915414493205</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2679792473670174</v>
+        <v>0.2070541701000058</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9342252095606364</v>
+        <v>0.9421915414493205</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9281058785237523</v>
+        <v>0.9373602474650763</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +506,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96.16536475229024</v>
+        <v>96.43085147795395</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1543739819326826</v>
+        <v>0.1176023078653088</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9616536475229024</v>
+        <v>0.9643085147795396</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9606836840293027</v>
+        <v>0.9640925652333211</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +525,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92.71386430678466</v>
+        <v>90.26565973754099</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1811234143670542</v>
+        <v>0.2626253697856252</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9271386430678465</v>
+        <v>0.9026565973754099</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9240350334353911</v>
+        <v>0.8965667639717486</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +544,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84.83983425462158</v>
+        <v>84.6043650896634</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3475495799663501</v>
+        <v>0.3904666773082378</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8483983425462158</v>
+        <v>0.846043650896634</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8360650596495862</v>
+        <v>0.829161048998307</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +563,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>94.92625368731564</v>
+        <v>91.44663881175443</v>
       </c>
       <c r="C7" t="n">
-        <v>0.13708838011565</v>
+        <v>0.2453310268969896</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9492625368731563</v>
+        <v>0.9144663881175443</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9491000571562335</v>
+        <v>0.905177054299768</v>
       </c>
     </row>
     <row r="8">
@@ -581,16 +582,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>89.6165191740413</v>
+        <v>93.1268436578171</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2906366590029695</v>
+        <v>0.162022675358215</v>
       </c>
       <c r="D8" t="n">
-        <v>0.896165191740413</v>
+        <v>0.9312684365781712</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8881882080351009</v>
+        <v>0.9300564822474883</v>
       </c>
     </row>
     <row r="9">
@@ -600,16 +601,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>93.00884955752213</v>
+        <v>93.39233038348083</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1779831526359885</v>
+        <v>0.1679999860414682</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9300884955752213</v>
+        <v>0.9339233038348083</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9289375606456435</v>
+        <v>0.9318781046456307</v>
       </c>
     </row>
     <row r="10">
@@ -619,16 +620,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>95.81120943952803</v>
+        <v>93.952802359882</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1143024391401316</v>
+        <v>0.2088044642439248</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9581120943952802</v>
+        <v>0.9395280235988202</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9575124769213094</v>
+        <v>0.9370091962879432</v>
       </c>
     </row>
     <row r="11">
@@ -638,16 +639,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>92.27138643067846</v>
+        <v>83.91015493213608</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2155855223870882</v>
+        <v>0.666437758067519</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9227138643067846</v>
+        <v>0.8391015493213609</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9182831181825923</v>
+        <v>0.8301169877315264</v>
       </c>
     </row>
     <row r="12">
@@ -657,16 +658,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>83.65781710914455</v>
+        <v>82.92035398230088</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5931709473849841</v>
+        <v>0.6176318730773953</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8365781710914455</v>
+        <v>0.8292035398230089</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8249651531190813</v>
+        <v>0.8173438193340372</v>
       </c>
     </row>
     <row r="13">
@@ -676,16 +677,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83.48082595870207</v>
+        <v>84.12979351032449</v>
       </c>
       <c r="C13" t="n">
-        <v>0.463470684689067</v>
+        <v>0.5050099400104955</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8348082595870207</v>
+        <v>0.8412979351032448</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8229272661149928</v>
+        <v>0.8293223139330479</v>
       </c>
     </row>
     <row r="14">
@@ -698,13 +699,13 @@
         <v>99.05604719764013</v>
       </c>
       <c r="C14" t="n">
-        <v>0.04223478981711798</v>
+        <v>0.04114143179792033</v>
       </c>
       <c r="D14" t="n">
         <v>0.9905604719764012</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9905437625404655</v>
+        <v>0.9905801027066083</v>
       </c>
     </row>
     <row r="15">
@@ -714,16 +715,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.64601769911505</v>
+        <v>98.90855457227138</v>
       </c>
       <c r="C15" t="n">
-        <v>0.009665773643729145</v>
+        <v>0.02673168666554631</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9964601769911503</v>
+        <v>0.9890855457227138</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9964624494755341</v>
+        <v>0.9892285891538739</v>
       </c>
     </row>
     <row r="16">
@@ -733,16 +734,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>95.69321533923303</v>
+        <v>96.60766961651917</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1033562299320363</v>
+        <v>0.07543378671878002</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9569321533923304</v>
+        <v>0.9660766961651918</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9537249304406374</v>
+        <v>0.9646499374697868</v>
       </c>
     </row>
     <row r="17">
@@ -752,16 +753,366 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>92.65113020008825</v>
+        <v>91.84213242905791</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2147230278525331</v>
+        <v>0.2538419231684957</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9265113020008824</v>
+        <v>0.9184213242905793</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9222365354244654</v>
+        <v>0.9132328995791028</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>89.58753968459935</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.2770014569929724</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.8958753968459934</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.8936626476430289</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>88.0013667938304</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.2709226450591814</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.8800136679383039</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.8775343496626586</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>92.65486725663717</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1730270818336673</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.9265486725663716</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.9242048321982533</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>88.26010605628076</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2966558526658143</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.8826010605628076</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.8808563302135491</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>68.1620083218713</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8746789119749641</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.681620083218713</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.659163271961393</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>80.6545039316949</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.4716045704980691</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8065450393169492</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.8086006372525858</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>87.05135857576622</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3363035896948228</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8705135857576624</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8717521084031123</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>91.56342182890856</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2098318171095646</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9156342182890855</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.916093273036191</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>87.96633188868415</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2765139429213984</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8796633188868416</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8782559336527083</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>86.3716814159292</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3806066048467377</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8637168141592919</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8514938996402071</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>77.96529381742057</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6850581235717982</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7796529381742057</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7802016989234686</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>83.68748864609556</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.4742780738975853</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8368748864609555</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.8302919220936419</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>95.22141194993036</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1278030843875967</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9522141194993037</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.952408272542048</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>92.41887905604719</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1991258449463809</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.924188790560472</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.9241852464948723</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>96.19469026548673</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1305472336374199</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9619469026548673</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.96144330448339</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>87.05072996594549</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3455972556025315</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8705072996594549</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8673431818800739</v>
       </c>
     </row>
   </sheetData>
